--- a/individual_case_outputs/avey/398.xlsx
+++ b/individual_case_outputs/avey/398.xlsx
@@ -775,7 +775,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>acute interstitial nephritis</t>
+          <t>nephritic syndrome</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -803,7 +803,7 @@
       <c r="M4" t="inlineStr"/>
       <c r="N4" t="inlineStr">
         <is>
-          <t>acute interstitial nephritis</t>
+          <t>kidney stones</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
@@ -903,7 +903,7 @@
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr">
         <is>
-          <t>acute interstitial nephritis</t>
+          <t>post streptococcal glomerulonepgritis</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -970,7 +970,7 @@
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
         <is>
-          <t>acute interstitial nephritis</t>
+          <t>pyelonephritis</t>
         </is>
       </c>
       <c r="S7" t="inlineStr"/>
